--- a/biology/Botanique/Île_aux_Roses/Île_aux_Roses.xlsx
+++ b/biology/Botanique/Île_aux_Roses/Île_aux_Roses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%8Ele_aux_Roses</t>
+          <t>Île_aux_Roses</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'île aux Roses (Roseninsel en allemand) est une île de 2,5 hectares du lac de Starnberg, sur la commune de Feldafing, à 30 km au sud-ouest de Munich, en Bavière, en Allemagne. Ancienne propriété des rois de Bavière de la route du Roi-Louis, l’ile aux Roses est un haut lieu de tourisme bavarois, classée aux monuments historiques allemand (D-1-88-118-44)[1], et ses vestiges de cité lacustre néolithique sont classés au Patrimoine mondial de l'Humanité.
+L'île aux Roses (Roseninsel en allemand) est une île de 2,5 hectares du lac de Starnberg, sur la commune de Feldafing, à 30 km au sud-ouest de Munich, en Bavière, en Allemagne. Ancienne propriété des rois de Bavière de la route du Roi-Louis, l’ile aux Roses est un haut lieu de tourisme bavarois, classée aux monuments historiques allemand (D-1-88-118-44), et ses vestiges de cité lacustre néolithique sont classés au Patrimoine mondial de l'Humanité.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%8Ele_aux_Roses</t>
+          <t>Île_aux_Roses</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’ile se situe dans la baie de Feldafing, à 170 m de la rive ouest du lac de Starnberg (plus grand lac de Bavière après le lac de Constance), proche de l'abbaye d'Andechs du XVe siècle, et du château de Possenhofen du XVIe siècle.
 			Embarcadère.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%8Ele_aux_Roses</t>
+          <t>Île_aux_Roses</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,12 +563,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Préhistoire
-Les plus anciennes traces humaines connues sur l’île sont :
+          <t>Préhistoire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plus anciennes traces humaines connues sur l’île sont :
 des vestiges d'une cité lacustre du Néolithique (5800 à 5700 av. J.-C.), classés au Patrimoine mondial de l'Humanité avec 111 sites palafittiques préhistoriques autour des Alpes
 des vestiges du début de l'Âge du bronze, avec la culture des champs d'urnes, où l’ile est reconnue comme lieu de culte celtique (1700 à 1000 av. J.-C. en Germanie).
-Rois de Bavière
-En 1850, le roi Maximilien II de Bavière et son épouse la princesse Marie de Prusse achètent l’ile en face de leurs château de Berg et château d'Allmannshausen pour un projet de casino non réalisé. Ils s'y font alors construire une résidence royale de villégiature d'été, de style pompéien (baptisé Casino pompéien-Bavière) avec parc arboré, jardin à l'anglaise, jardin à la française post-romantique allemand, et roseraie ovale de centaines de grands rosiers parfumés qui donnent son nom à l'ile (réalisés par le paysagiste Peter Joseph Lenné). Une colonne en verre bleu et blanc avec une statue d'une jeune fille au perroquet trône au centre du jardin (un des trois exemplaires offerts en cadeau par leur cousin le roi Frédéric-Guillaume IV de Prusse)[2]. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Île_aux_Roses</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%8Ele_aux_Roses</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Rois de Bavière</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1850, le roi Maximilien II de Bavière et son épouse la princesse Marie de Prusse achètent l’ile en face de leurs château de Berg et château d'Allmannshausen pour un projet de casino non réalisé. Ils s'y font alors construire une résidence royale de villégiature d'été, de style pompéien (baptisé Casino pompéien-Bavière) avec parc arboré, jardin à l'anglaise, jardin à la française post-romantique allemand, et roseraie ovale de centaines de grands rosiers parfumés qui donnent son nom à l'ile (réalisés par le paysagiste Peter Joseph Lenné). Une colonne en verre bleu et blanc avec une statue d'une jeune fille au perroquet trône au centre du jardin (un des trois exemplaires offerts en cadeau par leur cousin le roi Frédéric-Guillaume IV de Prusse). 
 			Barque de traversée.
 			Vue depuis le parc du château de Possenhofen voisin (château de Sissi).
 			Plan des jardins du paysagiste Peter Joseph Lenné en 1850.
@@ -576,31 +630,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%8Ele_aux_Roses</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Île_aux_Roses</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%8Ele_aux_Roses</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Tourisme et musées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>À ce jour, l’île arborée, la villa casino et son jardin roseraie, et son petit musée, sont un haut lieu du tourisme bavarois, propriété de l'administration des châteaux, jardins et lacs de l'État bavarois, sur la route du Roi-Louis, ouvert à la visite à la belle saison, avec jusqu'à 4000 touristes mensuels.
 Un chemin touristique « Elisabeth Weg » va de :
@@ -610,31 +666,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%8Ele_aux_Roses</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Île_aux_Roses</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%8Ele_aux_Roses</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1972 : Ludwig ou le Crépuscule des dieux, de Luchino Visconti, avec Romy Schneider dans le rôle de Sissi, Helmut Berger dans celui du roi Louis II de Bavière, et Trevor Howard dans celui de Richard Wagner.</t>
         </is>
